--- a/place_txt.xlsx
+++ b/place_txt.xlsx
@@ -14,7 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="261">
+  <si>
+    <t>VERSION = 2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UUNITS = MILLIMETERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>Designator</t>
     <phoneticPr fontId="1"/>
@@ -1353,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1362,81 +1370,51 @@
     <col min="1" max="6" width="8.38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>113.2164</v>
-      </c>
-      <c r="C2">
-        <v>39.5307</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>113.35</v>
-      </c>
-      <c r="C3">
-        <v>42.31</v>
-      </c>
-      <c r="D3">
-        <v>180</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>87.5754</v>
+        <v>113.2164</v>
       </c>
       <c r="C4">
-        <v>5.7915</v>
+        <v>39.5307</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -1444,22 +1422,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>86.9319</v>
+        <v>113.35</v>
       </c>
       <c r="C5">
-        <v>14.6817</v>
+        <v>42.31</v>
       </c>
       <c r="D5">
         <v>180</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1467,19 +1445,19 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>48.15</v>
+        <v>87.5754</v>
       </c>
       <c r="C6">
-        <v>27.18</v>
+        <v>5.7915</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1487,16 +1465,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>48.15</v>
+        <v>86.9319</v>
       </c>
       <c r="C7">
-        <v>25.75</v>
+        <v>14.6817</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -1510,16 +1488,16 @@
         <v>48.15</v>
       </c>
       <c r="C8">
-        <v>21.4701</v>
+        <v>27.18</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1530,16 +1508,16 @@
         <v>48.15</v>
       </c>
       <c r="C9">
-        <v>18.62</v>
+        <v>25.75</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1547,19 +1525,19 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>48.1401</v>
+        <v>48.15</v>
       </c>
       <c r="C10">
-        <v>38.6199</v>
+        <v>21.4701</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1567,19 +1545,19 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>48.1599</v>
+        <v>48.15</v>
       </c>
       <c r="C11">
-        <v>35.7701</v>
+        <v>18.62</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1587,19 +1565,19 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>48.1599</v>
+        <v>48.1401</v>
       </c>
       <c r="C12">
-        <v>32.91</v>
+        <v>38.6199</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1607,19 +1585,19 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>48.15</v>
+        <v>48.1599</v>
       </c>
       <c r="C13">
-        <v>30.0299</v>
+        <v>35.7701</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1627,19 +1605,19 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>59.2869</v>
+        <v>48.1599</v>
       </c>
       <c r="C14">
-        <v>21.51</v>
+        <v>32.91</v>
       </c>
       <c r="D14">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1647,19 +1625,19 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>57.6986</v>
+        <v>48.15</v>
       </c>
       <c r="C15">
-        <v>21.51</v>
+        <v>30.0299</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1667,19 +1645,19 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>67.007</v>
+        <v>59.2869</v>
       </c>
       <c r="C16">
-        <v>21.4899</v>
+        <v>21.51</v>
       </c>
       <c r="D16">
         <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1687,19 +1665,19 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>65.5869</v>
+        <v>57.6986</v>
       </c>
       <c r="C17">
-        <v>21.4899</v>
+        <v>21.51</v>
       </c>
       <c r="D17">
         <v>90</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1707,19 +1685,19 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>60.707</v>
+        <v>67.007</v>
       </c>
       <c r="C18">
-        <v>21.4998</v>
+        <v>21.4899</v>
       </c>
       <c r="D18">
         <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1727,19 +1705,19 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>64.167</v>
+        <v>65.5869</v>
       </c>
       <c r="C19">
-        <v>21.4998</v>
+        <v>21.4899</v>
       </c>
       <c r="D19">
         <v>90</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1747,19 +1725,19 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>56.1401</v>
+        <v>60.707</v>
       </c>
       <c r="C20">
-        <v>21.46</v>
+        <v>21.4998</v>
       </c>
       <c r="D20">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1767,19 +1745,19 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>31.8351</v>
+        <v>64.167</v>
       </c>
       <c r="C21">
-        <v>4.7798</v>
+        <v>21.4998</v>
       </c>
       <c r="D21">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1787,19 +1765,19 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>35.3169</v>
+        <v>56.1401</v>
       </c>
       <c r="C22">
-        <v>4.76</v>
+        <v>21.46</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1807,19 +1785,19 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>38.6283</v>
+        <v>31.8351</v>
       </c>
       <c r="C23">
         <v>4.7798</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1827,19 +1805,19 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>41.8673</v>
+        <v>35.3169</v>
       </c>
       <c r="C24">
-        <v>4.7798</v>
+        <v>4.76</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1847,19 +1825,19 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>43.2699</v>
+        <v>38.6283</v>
       </c>
       <c r="C25">
-        <v>46.8099</v>
+        <v>4.7798</v>
       </c>
       <c r="D25">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1867,19 +1845,19 @@
         <v>33</v>
       </c>
       <c r="B26">
-        <v>43.2699</v>
+        <v>41.8673</v>
       </c>
       <c r="C26">
-        <v>43.4101</v>
+        <v>4.7798</v>
       </c>
       <c r="D26">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1887,19 +1865,19 @@
         <v>34</v>
       </c>
       <c r="B27">
-        <v>30.05</v>
+        <v>43.2699</v>
       </c>
       <c r="C27">
-        <v>56.3199</v>
+        <v>46.8099</v>
       </c>
       <c r="D27">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1907,19 +1885,19 @@
         <v>35</v>
       </c>
       <c r="B28">
-        <v>34.2499</v>
+        <v>43.2699</v>
       </c>
       <c r="C28">
-        <v>56.3301</v>
+        <v>43.4101</v>
       </c>
       <c r="D28">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1927,19 +1905,19 @@
         <v>36</v>
       </c>
       <c r="B29">
-        <v>76.6823</v>
+        <v>30.05</v>
       </c>
       <c r="C29">
-        <v>31.3624</v>
+        <v>56.3199</v>
       </c>
       <c r="D29">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1947,19 +1925,19 @@
         <v>37</v>
       </c>
       <c r="B30">
-        <v>76.6823</v>
+        <v>34.2499</v>
       </c>
       <c r="C30">
-        <v>28.5392</v>
+        <v>56.3301</v>
       </c>
       <c r="D30">
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1967,19 +1945,19 @@
         <v>38</v>
       </c>
       <c r="B31">
-        <v>76.7022</v>
+        <v>76.6823</v>
       </c>
       <c r="C31">
-        <v>37.1376</v>
+        <v>31.3624</v>
       </c>
       <c r="D31">
         <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1987,19 +1965,19 @@
         <v>39</v>
       </c>
       <c r="B32">
-        <v>76.6923</v>
+        <v>76.6823</v>
       </c>
       <c r="C32">
-        <v>34.3045</v>
+        <v>28.5392</v>
       </c>
       <c r="D32">
         <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2007,19 +1985,19 @@
         <v>40</v>
       </c>
       <c r="B33">
-        <v>59.1129</v>
+        <v>76.7022</v>
       </c>
       <c r="C33">
-        <v>35.5212</v>
+        <v>37.1376</v>
       </c>
       <c r="D33">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2027,19 +2005,19 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>62.172</v>
+        <v>76.6923</v>
       </c>
       <c r="C34">
-        <v>40.0158</v>
+        <v>34.3045</v>
       </c>
       <c r="D34">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2047,19 +2025,19 @@
         <v>42</v>
       </c>
       <c r="B35">
-        <v>64.2411</v>
+        <v>59.1129</v>
       </c>
       <c r="C35">
-        <v>29.6208</v>
+        <v>35.5212</v>
       </c>
       <c r="D35">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2067,19 +2045,19 @@
         <v>43</v>
       </c>
       <c r="B36">
-        <v>61.3305</v>
+        <v>62.172</v>
       </c>
       <c r="C36">
-        <v>29.6208</v>
+        <v>40.0158</v>
       </c>
       <c r="D36">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2087,199 +2065,199 @@
         <v>44</v>
       </c>
       <c r="B37">
-        <v>102.7719</v>
+        <v>64.2411</v>
       </c>
       <c r="C37">
-        <v>21.8196</v>
+        <v>29.6208</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>104.2569</v>
+        <v>61.3305</v>
       </c>
       <c r="C38">
-        <v>15.5133</v>
+        <v>29.6208</v>
       </c>
       <c r="D38">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>74.6361</v>
+        <v>102.7719</v>
       </c>
       <c r="C39">
-        <v>13.2066</v>
+        <v>21.8196</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>62.8254</v>
+        <v>104.2569</v>
       </c>
       <c r="C40">
-        <v>34.3629</v>
+        <v>15.5133</v>
       </c>
       <c r="D40">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>80.98</v>
+        <v>74.6361</v>
       </c>
       <c r="C41">
-        <v>21.3599</v>
+        <v>13.2066</v>
       </c>
       <c r="D41">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42">
-        <v>62.9442</v>
+        <v>62.8254</v>
       </c>
       <c r="C42">
-        <v>46.7693</v>
+        <v>34.3629</v>
       </c>
       <c r="D42">
         <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>105.7914</v>
+        <v>80.98</v>
       </c>
       <c r="C43">
-        <v>11.2365</v>
+        <v>21.3599</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44">
-        <v>98.5743</v>
+        <v>62.9442</v>
       </c>
       <c r="C44">
-        <v>9.6327</v>
+        <v>46.7693</v>
       </c>
       <c r="D44">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B45">
-        <v>30.8</v>
+        <v>105.7914</v>
       </c>
       <c r="C45">
-        <v>59.0001</v>
+        <v>11.2365</v>
       </c>
       <c r="D45">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>98.5743</v>
+      </c>
+      <c r="C46">
+        <v>9.6327</v>
+      </c>
+      <c r="D46">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
         <v>61</v>
-      </c>
-      <c r="B46">
-        <v>34.9999</v>
-      </c>
-      <c r="C46">
-        <v>59.0001</v>
-      </c>
-      <c r="D46">
-        <v>180</v>
-      </c>
-      <c r="E46" t="s">
-        <v>7</v>
-      </c>
-      <c r="F46" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2287,19 +2265,19 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>31.8351</v>
+        <v>30.8</v>
       </c>
       <c r="C47">
-        <v>0.9486</v>
+        <v>59.0001</v>
       </c>
       <c r="D47">
         <v>180</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2307,19 +2285,19 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>35.3169</v>
+        <v>34.9999</v>
       </c>
       <c r="C48">
-        <v>0.9489</v>
+        <v>59.0001</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2327,19 +2305,19 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>38.6283</v>
+        <v>31.8351</v>
       </c>
       <c r="C49">
-        <v>0.9687</v>
+        <v>0.9486</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2347,19 +2325,19 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>41.8673</v>
+        <v>35.3169</v>
       </c>
       <c r="C50">
-        <v>0.9387</v>
+        <v>0.9489</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2367,19 +2345,19 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>119.9916</v>
+        <v>38.6283</v>
       </c>
       <c r="C51">
-        <v>33.8099</v>
+        <v>0.9687</v>
       </c>
       <c r="D51">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2387,19 +2365,19 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>119.9916</v>
+        <v>41.8673</v>
       </c>
       <c r="C52">
-        <v>31.2699</v>
+        <v>0.9387</v>
       </c>
       <c r="D52">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2410,16 +2388,16 @@
         <v>119.9916</v>
       </c>
       <c r="C53">
-        <v>28.7299</v>
+        <v>33.8099</v>
       </c>
       <c r="D53">
         <v>180</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2430,16 +2408,16 @@
         <v>119.9916</v>
       </c>
       <c r="C54">
-        <v>26.1899</v>
+        <v>31.2699</v>
       </c>
       <c r="D54">
         <v>180</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2450,16 +2428,16 @@
         <v>119.9916</v>
       </c>
       <c r="C55">
-        <v>43.9699</v>
+        <v>28.7299</v>
       </c>
       <c r="D55">
         <v>180</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2470,16 +2448,16 @@
         <v>119.9916</v>
       </c>
       <c r="C56">
-        <v>41.4299</v>
+        <v>26.1899</v>
       </c>
       <c r="D56">
         <v>180</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2490,16 +2468,16 @@
         <v>119.9916</v>
       </c>
       <c r="C57">
-        <v>38.8899</v>
+        <v>43.9699</v>
       </c>
       <c r="D57">
         <v>180</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2510,16 +2488,16 @@
         <v>119.9916</v>
       </c>
       <c r="C58">
-        <v>36.3499</v>
+        <v>41.4299</v>
       </c>
       <c r="D58">
         <v>180</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2527,56 +2505,56 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>113.6124</v>
+        <v>119.9916</v>
       </c>
       <c r="C59">
-        <v>34.6896</v>
+        <v>38.8899</v>
       </c>
       <c r="D59">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60">
-        <v>92.7801</v>
+        <v>119.9916</v>
       </c>
       <c r="C60">
-        <v>57.7601</v>
+        <v>36.3499</v>
       </c>
       <c r="D60">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B61">
-        <v>79.28</v>
+        <v>113.6124</v>
       </c>
       <c r="C61">
-        <v>44.05</v>
+        <v>34.6896</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
         <v>77</v>
@@ -2584,22 +2562,22 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62">
-        <v>94.4199</v>
+        <v>92.7801</v>
       </c>
       <c r="C62">
-        <v>29.45</v>
+        <v>57.7601</v>
       </c>
       <c r="D62">
         <v>90</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2607,19 +2585,19 @@
         <v>80</v>
       </c>
       <c r="B63">
-        <v>108.6985</v>
+        <v>79.28</v>
       </c>
       <c r="C63">
-        <v>39.7726</v>
+        <v>44.05</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2627,59 +2605,59 @@
         <v>81</v>
       </c>
       <c r="B64">
-        <v>112.7016</v>
+        <v>94.4199</v>
       </c>
       <c r="C64">
-        <v>30.5712</v>
+        <v>29.45</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B65">
-        <v>55.2699</v>
+        <v>108.6985</v>
       </c>
       <c r="C65">
-        <v>31.482</v>
+        <v>39.7726</v>
       </c>
       <c r="D65">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66">
+        <v>112.7016</v>
+      </c>
+      <c r="C66">
+        <v>30.5712</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
         <v>84</v>
-      </c>
-      <c r="B66">
-        <v>55.2699</v>
-      </c>
-      <c r="C66">
-        <v>28.7175</v>
-      </c>
-      <c r="D66">
-        <v>180</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
-      </c>
-      <c r="F66" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2690,16 +2668,16 @@
         <v>55.2699</v>
       </c>
       <c r="C67">
-        <v>25.6301</v>
+        <v>31.482</v>
       </c>
       <c r="D67">
         <v>180</v>
       </c>
       <c r="E67" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2707,19 +2685,19 @@
         <v>86</v>
       </c>
       <c r="B68">
-        <v>54.3301</v>
+        <v>55.2699</v>
       </c>
       <c r="C68">
-        <v>22.2001</v>
+        <v>28.7175</v>
       </c>
       <c r="D68">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2727,19 +2705,19 @@
         <v>87</v>
       </c>
       <c r="B69">
-        <v>54.3301</v>
+        <v>55.2699</v>
       </c>
       <c r="C69">
-        <v>18.37</v>
+        <v>25.6301</v>
       </c>
       <c r="D69">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2747,19 +2725,19 @@
         <v>88</v>
       </c>
       <c r="B70">
-        <v>55.2699</v>
+        <v>54.3301</v>
       </c>
       <c r="C70">
-        <v>40.26</v>
+        <v>22.2001</v>
       </c>
       <c r="D70">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2767,19 +2745,19 @@
         <v>89</v>
       </c>
       <c r="B71">
-        <v>55.2699</v>
+        <v>54.3301</v>
       </c>
       <c r="C71">
-        <v>37.3339</v>
+        <v>18.37</v>
       </c>
       <c r="D71">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2790,16 +2768,16 @@
         <v>55.2699</v>
       </c>
       <c r="C72">
-        <v>34.4081</v>
+        <v>40.26</v>
       </c>
       <c r="D72">
         <v>180</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2807,19 +2785,19 @@
         <v>91</v>
       </c>
       <c r="B73">
-        <v>117.1214</v>
+        <v>55.2699</v>
       </c>
       <c r="C73">
-        <v>33.8099</v>
+        <v>37.3339</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2827,19 +2805,19 @@
         <v>92</v>
       </c>
       <c r="B74">
-        <v>117.1214</v>
+        <v>55.2699</v>
       </c>
       <c r="C74">
-        <v>31.2699</v>
+        <v>34.4081</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2850,16 +2828,16 @@
         <v>117.1214</v>
       </c>
       <c r="C75">
-        <v>28.7299</v>
+        <v>33.8099</v>
       </c>
       <c r="D75">
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2870,16 +2848,16 @@
         <v>117.1214</v>
       </c>
       <c r="C76">
-        <v>26.1899</v>
+        <v>31.2699</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2890,16 +2868,16 @@
         <v>117.1214</v>
       </c>
       <c r="C77">
-        <v>43.9699</v>
+        <v>28.7299</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2910,16 +2888,16 @@
         <v>117.1214</v>
       </c>
       <c r="C78">
-        <v>41.4299</v>
+        <v>26.1899</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2930,16 +2908,16 @@
         <v>117.1214</v>
       </c>
       <c r="C79">
-        <v>38.8899</v>
+        <v>43.9699</v>
       </c>
       <c r="D79">
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2950,16 +2928,16 @@
         <v>117.1214</v>
       </c>
       <c r="C80">
-        <v>36.3499</v>
+        <v>41.4299</v>
       </c>
       <c r="D80">
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2967,96 +2945,96 @@
         <v>99</v>
       </c>
       <c r="B81">
-        <v>81.9399</v>
+        <v>117.1214</v>
       </c>
       <c r="C81">
-        <v>53.6801</v>
+        <v>38.8899</v>
       </c>
       <c r="D81">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B82">
-        <v>85.5401</v>
+        <v>117.1214</v>
       </c>
       <c r="C82">
-        <v>52.5201</v>
+        <v>36.3499</v>
       </c>
       <c r="D82">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83">
+        <v>81.9399</v>
+      </c>
+      <c r="C83">
+        <v>53.6801</v>
+      </c>
+      <c r="D83">
+        <v>270</v>
+      </c>
+      <c r="E83" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" t="s">
         <v>102</v>
-      </c>
-      <c r="B83">
-        <v>94.82</v>
-      </c>
-      <c r="C83">
-        <v>49.42</v>
-      </c>
-      <c r="D83">
-        <v>90</v>
-      </c>
-      <c r="E83" t="s">
-        <v>7</v>
-      </c>
-      <c r="F83" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84">
-        <v>100.2701</v>
+        <v>85.5401</v>
       </c>
       <c r="C84">
-        <v>42.4</v>
+        <v>52.5201</v>
       </c>
       <c r="D84">
         <v>180</v>
       </c>
       <c r="E84" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B85">
-        <v>102.7801</v>
+        <v>94.82</v>
       </c>
       <c r="C85">
-        <v>53.21</v>
+        <v>49.42</v>
       </c>
       <c r="D85">
         <v>90</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
         <v>105</v>
@@ -3064,22 +3042,22 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86">
+        <v>100.2701</v>
+      </c>
+      <c r="C86">
+        <v>42.4</v>
+      </c>
+      <c r="D86">
+        <v>180</v>
+      </c>
+      <c r="E86" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" t="s">
         <v>107</v>
-      </c>
-      <c r="B86">
-        <v>105.9099</v>
-      </c>
-      <c r="C86">
-        <v>53.21</v>
-      </c>
-      <c r="D86">
-        <v>90</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3087,19 +3065,19 @@
         <v>108</v>
       </c>
       <c r="B87">
-        <v>105.9099</v>
+        <v>102.7801</v>
       </c>
       <c r="C87">
-        <v>47.64</v>
+        <v>53.21</v>
       </c>
       <c r="D87">
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3107,19 +3085,19 @@
         <v>109</v>
       </c>
       <c r="B88">
-        <v>102.7801</v>
+        <v>105.9099</v>
       </c>
       <c r="C88">
-        <v>47.6301</v>
+        <v>53.21</v>
       </c>
       <c r="D88">
         <v>90</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3127,19 +3105,19 @@
         <v>110</v>
       </c>
       <c r="B89">
-        <v>87.1497</v>
+        <v>105.9099</v>
       </c>
       <c r="C89">
-        <v>18.018</v>
+        <v>47.64</v>
       </c>
       <c r="D89">
         <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3147,19 +3125,19 @@
         <v>111</v>
       </c>
       <c r="B90">
-        <v>108.7119</v>
+        <v>102.7801</v>
       </c>
       <c r="C90">
-        <v>23.8095</v>
+        <v>47.6301</v>
       </c>
       <c r="D90">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3167,19 +3145,19 @@
         <v>112</v>
       </c>
       <c r="B91">
-        <v>104.1282</v>
+        <v>87.1497</v>
       </c>
       <c r="C91">
-        <v>18.1368</v>
+        <v>18.018</v>
       </c>
       <c r="D91">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3187,19 +3165,19 @@
         <v>113</v>
       </c>
       <c r="B92">
-        <v>71.9928</v>
+        <v>108.7119</v>
       </c>
       <c r="C92">
-        <v>7.5735</v>
+        <v>23.8095</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3207,19 +3185,19 @@
         <v>114</v>
       </c>
       <c r="B93">
-        <v>75.1707</v>
+        <v>104.1282</v>
       </c>
       <c r="C93">
-        <v>18.4635</v>
+        <v>18.1368</v>
       </c>
       <c r="D93">
         <v>180</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3227,19 +3205,19 @@
         <v>115</v>
       </c>
       <c r="B94">
-        <v>76.6557</v>
+        <v>71.9928</v>
       </c>
       <c r="C94">
-        <v>7.4151</v>
+        <v>7.5735</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3247,19 +3225,19 @@
         <v>116</v>
       </c>
       <c r="B95">
-        <v>66.2805</v>
+        <v>75.1707</v>
       </c>
       <c r="C95">
-        <v>32.5611</v>
+        <v>18.4635</v>
       </c>
       <c r="D95">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3267,19 +3245,19 @@
         <v>117</v>
       </c>
       <c r="B96">
-        <v>66.2805</v>
+        <v>76.6557</v>
       </c>
       <c r="C96">
-        <v>35.5113</v>
+        <v>7.4151</v>
       </c>
       <c r="D96">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3287,19 +3265,19 @@
         <v>118</v>
       </c>
       <c r="B97">
-        <v>17.068</v>
+        <v>66.2805</v>
       </c>
       <c r="C97">
-        <v>55.8698</v>
+        <v>32.5611</v>
       </c>
       <c r="D97">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E97" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3307,19 +3285,19 @@
         <v>119</v>
       </c>
       <c r="B98">
-        <v>15.5623</v>
+        <v>66.2805</v>
       </c>
       <c r="C98">
-        <v>55.8698</v>
+        <v>35.5113</v>
       </c>
       <c r="D98">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3327,19 +3305,19 @@
         <v>120</v>
       </c>
       <c r="B99">
-        <v>81.9324</v>
+        <v>17.068</v>
       </c>
       <c r="C99">
-        <v>8.4348</v>
+        <v>55.8698</v>
       </c>
       <c r="D99">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3347,19 +3325,19 @@
         <v>121</v>
       </c>
       <c r="B100">
-        <v>105.93</v>
+        <v>15.5623</v>
       </c>
       <c r="C100">
-        <v>8.3952</v>
+        <v>55.8698</v>
       </c>
       <c r="D100">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3367,19 +3345,19 @@
         <v>122</v>
       </c>
       <c r="B101">
-        <v>117.396</v>
+        <v>81.9324</v>
       </c>
       <c r="C101">
-        <v>22.4173</v>
+        <v>8.4348</v>
       </c>
       <c r="D101">
         <v>180</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3387,19 +3365,19 @@
         <v>123</v>
       </c>
       <c r="B102">
-        <v>80.4276</v>
+        <v>105.93</v>
       </c>
       <c r="C102">
-        <v>17.2161</v>
+        <v>8.3952</v>
       </c>
       <c r="D102">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E102" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3407,19 +3385,19 @@
         <v>124</v>
       </c>
       <c r="B103">
-        <v>85.7301</v>
+        <v>117.396</v>
       </c>
       <c r="C103">
-        <v>20.9601</v>
+        <v>22.4173</v>
       </c>
       <c r="D103">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E103" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3427,19 +3405,19 @@
         <v>125</v>
       </c>
       <c r="B104">
-        <v>85.7199</v>
+        <v>80.4276</v>
       </c>
       <c r="C104">
-        <v>24.24</v>
+        <v>17.2161</v>
       </c>
       <c r="D104">
         <v>270</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3447,19 +3425,19 @@
         <v>126</v>
       </c>
       <c r="B105">
-        <v>23.1107</v>
+        <v>85.7301</v>
       </c>
       <c r="C105">
-        <v>19.287</v>
+        <v>20.9601</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E105" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3467,19 +3445,19 @@
         <v>127</v>
       </c>
       <c r="B106">
-        <v>61.2686</v>
+        <v>85.7199</v>
       </c>
       <c r="C106">
-        <v>18.6134</v>
+        <v>24.24</v>
       </c>
       <c r="D106">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3487,19 +3465,19 @@
         <v>128</v>
       </c>
       <c r="B107">
-        <v>66.8541</v>
+        <v>23.1107</v>
       </c>
       <c r="C107">
-        <v>47.7093</v>
+        <v>19.287</v>
       </c>
       <c r="D107">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3507,19 +3485,19 @@
         <v>129</v>
       </c>
       <c r="B108">
-        <v>40.23</v>
+        <v>61.2686</v>
       </c>
       <c r="C108">
-        <v>48.8</v>
+        <v>18.6134</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3527,19 +3505,19 @@
         <v>130</v>
       </c>
       <c r="B109">
-        <v>90.82</v>
+        <v>66.8541</v>
       </c>
       <c r="C109">
-        <v>39.8699</v>
+        <v>47.7093</v>
       </c>
       <c r="D109">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E109" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3547,59 +3525,59 @@
         <v>131</v>
       </c>
       <c r="B110">
-        <v>83.9421</v>
+        <v>40.23</v>
       </c>
       <c r="C110">
-        <v>14.6817</v>
+        <v>48.8</v>
       </c>
       <c r="D110">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B111">
-        <v>89.1495</v>
+        <v>90.82</v>
       </c>
       <c r="C111">
-        <v>17.8497</v>
+        <v>39.8699</v>
       </c>
       <c r="D111">
         <v>270</v>
       </c>
       <c r="E111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
+        <v>133</v>
+      </c>
+      <c r="B112">
+        <v>83.9421</v>
+      </c>
+      <c r="C112">
+        <v>14.6817</v>
+      </c>
+      <c r="D112">
+        <v>90</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" t="s">
         <v>134</v>
-      </c>
-      <c r="B112">
-        <v>81.6453</v>
-      </c>
-      <c r="C112">
-        <v>6.6429</v>
-      </c>
-      <c r="D112">
-        <v>180</v>
-      </c>
-      <c r="E112" t="s">
-        <v>7</v>
-      </c>
-      <c r="F112" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3607,19 +3585,19 @@
         <v>135</v>
       </c>
       <c r="B113">
-        <v>105.831</v>
+        <v>89.1495</v>
       </c>
       <c r="C113">
-        <v>6.5439</v>
+        <v>17.8497</v>
       </c>
       <c r="D113">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3627,19 +3605,19 @@
         <v>136</v>
       </c>
       <c r="B114">
-        <v>114.0874</v>
+        <v>81.6453</v>
       </c>
       <c r="C114">
-        <v>22.5659</v>
+        <v>6.6429</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E114" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3647,19 +3625,19 @@
         <v>137</v>
       </c>
       <c r="B115">
-        <v>83.358</v>
+        <v>105.831</v>
       </c>
       <c r="C115">
-        <v>17.6517</v>
+        <v>6.5439</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3667,19 +3645,19 @@
         <v>138</v>
       </c>
       <c r="B116">
-        <v>93.2</v>
+        <v>114.0874</v>
       </c>
       <c r="C116">
-        <v>32.2499</v>
+        <v>22.5659</v>
       </c>
       <c r="D116">
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3687,19 +3665,19 @@
         <v>139</v>
       </c>
       <c r="B117">
-        <v>62.4271</v>
+        <v>83.358</v>
       </c>
       <c r="C117">
-        <v>21.7899</v>
+        <v>17.6517</v>
       </c>
       <c r="D117">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3707,19 +3685,19 @@
         <v>140</v>
       </c>
       <c r="B118">
-        <v>59.5643</v>
+        <v>93.2</v>
       </c>
       <c r="C118">
-        <v>46.8693</v>
+        <v>32.2499</v>
       </c>
       <c r="D118">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3727,19 +3705,19 @@
         <v>141</v>
       </c>
       <c r="B119">
-        <v>65.1617</v>
+        <v>62.4271</v>
       </c>
       <c r="C119">
-        <v>49.9163</v>
+        <v>21.7899</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E119" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3747,19 +3725,19 @@
         <v>142</v>
       </c>
       <c r="B120">
-        <v>84.95</v>
+        <v>59.5643</v>
       </c>
       <c r="C120">
-        <v>34.4701</v>
+        <v>46.8693</v>
       </c>
       <c r="D120">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F120" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3767,19 +3745,19 @@
         <v>143</v>
       </c>
       <c r="B121">
-        <v>40.1</v>
+        <v>65.1617</v>
       </c>
       <c r="C121">
-        <v>50.6801</v>
+        <v>49.9163</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3787,19 +3765,19 @@
         <v>144</v>
       </c>
       <c r="B122">
-        <v>86.7369</v>
+        <v>84.95</v>
       </c>
       <c r="C122">
-        <v>42.4769</v>
+        <v>34.4701</v>
       </c>
       <c r="D122">
         <v>180</v>
       </c>
       <c r="E122" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3807,19 +3785,19 @@
         <v>145</v>
       </c>
       <c r="B123">
-        <v>91.8601</v>
+        <v>40.1</v>
       </c>
       <c r="C123">
-        <v>35.9999</v>
+        <v>50.6801</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3827,19 +3805,19 @@
         <v>146</v>
       </c>
       <c r="B124">
-        <v>100.09</v>
+        <v>86.7369</v>
       </c>
       <c r="C124">
-        <v>49.4401</v>
+        <v>42.4769</v>
       </c>
       <c r="D124">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3847,19 +3825,19 @@
         <v>147</v>
       </c>
       <c r="B125">
-        <v>100.09</v>
+        <v>91.8601</v>
       </c>
       <c r="C125">
-        <v>45.8701</v>
+        <v>35.9999</v>
       </c>
       <c r="D125">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F125" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3867,19 +3845,19 @@
         <v>148</v>
       </c>
       <c r="B126">
-        <v>104.87</v>
+        <v>100.09</v>
       </c>
       <c r="C126">
-        <v>41.91</v>
+        <v>49.4401</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E126" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F126" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3887,19 +3865,19 @@
         <v>149</v>
       </c>
       <c r="B127">
-        <v>104.1999</v>
+        <v>100.09</v>
       </c>
       <c r="C127">
-        <v>33.94</v>
+        <v>45.8701</v>
       </c>
       <c r="D127">
         <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3907,19 +3885,19 @@
         <v>150</v>
       </c>
       <c r="B128">
-        <v>89.4499</v>
+        <v>104.87</v>
       </c>
       <c r="C128">
-        <v>52.12</v>
+        <v>41.91</v>
       </c>
       <c r="D128">
         <v>0</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3927,19 +3905,19 @@
         <v>151</v>
       </c>
       <c r="B129">
-        <v>100.4652</v>
+        <v>104.1999</v>
       </c>
       <c r="C129">
-        <v>18.0378</v>
+        <v>33.94</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3947,19 +3925,19 @@
         <v>152</v>
       </c>
       <c r="B130">
-        <v>82.7999</v>
+        <v>89.4499</v>
       </c>
       <c r="C130">
-        <v>24.78</v>
+        <v>52.12</v>
       </c>
       <c r="D130">
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F130" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3967,19 +3945,19 @@
         <v>153</v>
       </c>
       <c r="B131">
-        <v>92.4759</v>
+        <v>100.4652</v>
       </c>
       <c r="C131">
-        <v>9.7812</v>
+        <v>18.0378</v>
       </c>
       <c r="D131">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3987,19 +3965,19 @@
         <v>154</v>
       </c>
       <c r="B132">
-        <v>79.7544</v>
+        <v>82.7999</v>
       </c>
       <c r="C132">
-        <v>10.6326</v>
+        <v>24.78</v>
       </c>
       <c r="D132">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F132" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -4007,19 +3985,19 @@
         <v>155</v>
       </c>
       <c r="B133">
-        <v>6.3002</v>
+        <v>92.4759</v>
       </c>
       <c r="C133">
-        <v>43.2496</v>
+        <v>9.7812</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E133" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -4027,19 +4005,19 @@
         <v>156</v>
       </c>
       <c r="B134">
-        <v>23.0314</v>
+        <v>79.7544</v>
       </c>
       <c r="C134">
-        <v>21.0602</v>
+        <v>10.6326</v>
       </c>
       <c r="D134">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F134" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4047,56 +4025,56 @@
         <v>157</v>
       </c>
       <c r="B135">
-        <v>61.0799</v>
+        <v>6.3002</v>
       </c>
       <c r="C135">
-        <v>9.8999</v>
+        <v>43.2496</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B136">
-        <v>99.1499</v>
+        <v>23.0314</v>
       </c>
       <c r="C136">
-        <v>39.2999</v>
+        <v>21.0602</v>
       </c>
       <c r="D136">
         <v>180</v>
       </c>
       <c r="E136" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B137">
-        <v>93.8299</v>
+        <v>61.0799</v>
       </c>
       <c r="C137">
-        <v>44.77</v>
+        <v>9.8999</v>
       </c>
       <c r="D137">
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
         <v>160</v>
@@ -4104,22 +4082,22 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
+        <v>161</v>
+      </c>
+      <c r="B138">
+        <v>99.1499</v>
+      </c>
+      <c r="C138">
+        <v>39.2999</v>
+      </c>
+      <c r="D138">
+        <v>180</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" t="s">
         <v>162</v>
-      </c>
-      <c r="B138">
-        <v>124.2101</v>
-      </c>
-      <c r="C138">
-        <v>57.64</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" t="s">
-        <v>7</v>
-      </c>
-      <c r="F138" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4127,139 +4105,139 @@
         <v>163</v>
       </c>
       <c r="B139">
-        <v>115.8199</v>
+        <v>93.8299</v>
       </c>
       <c r="C139">
-        <v>47.61</v>
+        <v>44.77</v>
       </c>
       <c r="D139">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B140">
-        <v>77.47</v>
+        <v>124.2101</v>
       </c>
       <c r="C140">
-        <v>58.42</v>
+        <v>57.64</v>
       </c>
       <c r="D140">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B141">
-        <v>124.5001</v>
+        <v>115.8199</v>
       </c>
       <c r="C141">
-        <v>29.9999</v>
+        <v>47.61</v>
       </c>
       <c r="D141">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E141" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F141" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B142">
-        <v>98.92</v>
+        <v>77.47</v>
       </c>
       <c r="C142">
-        <v>34.4899</v>
+        <v>58.42</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E142" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F142" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B143">
-        <v>85.6701</v>
+        <v>124.5001</v>
       </c>
       <c r="C143">
-        <v>47.7101</v>
+        <v>29.9999</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E143" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B144">
-        <v>81.2592</v>
+        <v>98.92</v>
       </c>
       <c r="C144">
-        <v>14.553</v>
+        <v>34.4899</v>
       </c>
       <c r="D144">
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" t="s">
+        <v>173</v>
+      </c>
+      <c r="B145">
+        <v>85.6701</v>
+      </c>
+      <c r="C145">
+        <v>47.7101</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" t="s">
         <v>174</v>
-      </c>
-      <c r="B145">
-        <v>83.2986</v>
-      </c>
-      <c r="C145">
-        <v>4.7025</v>
-      </c>
-      <c r="D145">
-        <v>180</v>
-      </c>
-      <c r="E145" t="s">
-        <v>7</v>
-      </c>
-      <c r="F145" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4267,19 +4245,19 @@
         <v>175</v>
       </c>
       <c r="B146">
-        <v>90.0951</v>
+        <v>81.2592</v>
       </c>
       <c r="C146">
-        <v>34.245</v>
+        <v>14.553</v>
       </c>
       <c r="D146">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4287,19 +4265,19 @@
         <v>176</v>
       </c>
       <c r="B147">
-        <v>75.1707</v>
+        <v>83.2986</v>
       </c>
       <c r="C147">
-        <v>20.3841</v>
+        <v>4.7025</v>
       </c>
       <c r="D147">
         <v>180</v>
       </c>
       <c r="E147" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4307,59 +4285,59 @@
         <v>177</v>
       </c>
       <c r="B148">
-        <v>14.78</v>
+        <v>90.0951</v>
       </c>
       <c r="C148">
-        <v>47.61</v>
+        <v>34.245</v>
       </c>
       <c r="D148">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E148" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>178</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B149">
-        <v>51.4305</v>
+        <v>75.1707</v>
       </c>
       <c r="C149">
-        <v>27.5095</v>
+        <v>20.3841</v>
       </c>
       <c r="D149">
         <v>180</v>
       </c>
       <c r="E149" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F149" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B150">
-        <v>51.4305</v>
+        <v>14.78</v>
       </c>
       <c r="C150">
-        <v>24.1874</v>
+        <v>47.61</v>
       </c>
       <c r="D150">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E150" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4370,16 +4348,16 @@
         <v>51.4305</v>
       </c>
       <c r="C151">
-        <v>20.8653</v>
+        <v>27.5095</v>
       </c>
       <c r="D151">
         <v>180</v>
       </c>
       <c r="E151" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4390,16 +4368,16 @@
         <v>51.4305</v>
       </c>
       <c r="C152">
-        <v>17.5432</v>
+        <v>24.1874</v>
       </c>
       <c r="D152">
         <v>180</v>
       </c>
       <c r="E152" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F152" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4410,16 +4388,16 @@
         <v>51.4305</v>
       </c>
       <c r="C153">
-        <v>40.7979</v>
+        <v>20.8653</v>
       </c>
       <c r="D153">
         <v>180</v>
       </c>
       <c r="E153" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F153" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4430,16 +4408,16 @@
         <v>51.4305</v>
       </c>
       <c r="C154">
-        <v>37.4758</v>
+        <v>17.5432</v>
       </c>
       <c r="D154">
         <v>180</v>
       </c>
       <c r="E154" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F154" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4450,16 +4428,16 @@
         <v>51.4305</v>
       </c>
       <c r="C155">
-        <v>34.1537</v>
+        <v>40.7979</v>
       </c>
       <c r="D155">
         <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F155" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4470,16 +4448,16 @@
         <v>51.4305</v>
       </c>
       <c r="C156">
-        <v>30.8316</v>
+        <v>37.4758</v>
       </c>
       <c r="D156">
         <v>180</v>
       </c>
       <c r="E156" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F156" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4487,16 +4465,16 @@
         <v>187</v>
       </c>
       <c r="B157">
-        <v>84.8901</v>
+        <v>51.4305</v>
       </c>
       <c r="C157">
-        <v>54.4299</v>
+        <v>34.1537</v>
       </c>
       <c r="D157">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E157" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -4507,16 +4485,16 @@
         <v>188</v>
       </c>
       <c r="B158">
-        <v>81.972</v>
+        <v>51.4305</v>
       </c>
       <c r="C158">
-        <v>9.8802</v>
+        <v>30.8316</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E158" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -4527,19 +4505,19 @@
         <v>189</v>
       </c>
       <c r="B159">
-        <v>81.972</v>
+        <v>84.8901</v>
       </c>
       <c r="C159">
-        <v>11.3256</v>
+        <v>54.4299</v>
       </c>
       <c r="D159">
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4547,19 +4525,19 @@
         <v>190</v>
       </c>
       <c r="B160">
-        <v>94.0599</v>
+        <v>81.972</v>
       </c>
       <c r="C160">
-        <v>11.2365</v>
+        <v>9.8802</v>
       </c>
       <c r="D160">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4567,19 +4545,19 @@
         <v>191</v>
       </c>
       <c r="B161">
-        <v>94.0599</v>
+        <v>81.972</v>
       </c>
       <c r="C161">
-        <v>8.3259</v>
+        <v>11.3256</v>
       </c>
       <c r="D161">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4587,19 +4565,19 @@
         <v>192</v>
       </c>
       <c r="B162">
-        <v>108.7713</v>
+        <v>94.0599</v>
       </c>
       <c r="C162">
-        <v>22.3542</v>
+        <v>11.2365</v>
       </c>
       <c r="D162">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4607,19 +4585,19 @@
         <v>193</v>
       </c>
       <c r="B163">
-        <v>106.7801</v>
+        <v>94.0599</v>
       </c>
       <c r="C163">
-        <v>39.02</v>
+        <v>8.3259</v>
       </c>
       <c r="D163">
         <v>90</v>
       </c>
       <c r="E163" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4627,19 +4605,19 @@
         <v>194</v>
       </c>
       <c r="B164">
-        <v>66.8541</v>
+        <v>108.7713</v>
       </c>
       <c r="C164">
-        <v>46.2592</v>
+        <v>22.3542</v>
       </c>
       <c r="D164">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F164" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4647,19 +4625,19 @@
         <v>195</v>
       </c>
       <c r="B165">
-        <v>48.07</v>
+        <v>106.7801</v>
       </c>
       <c r="C165">
-        <v>8.57</v>
+        <v>39.02</v>
       </c>
       <c r="D165">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E165" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F165" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4667,19 +4645,19 @@
         <v>196</v>
       </c>
       <c r="B166">
-        <v>48.07</v>
+        <v>66.8541</v>
       </c>
       <c r="C166">
-        <v>11.1001</v>
+        <v>46.2592</v>
       </c>
       <c r="D166">
         <v>180</v>
       </c>
       <c r="E166" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4690,16 +4668,16 @@
         <v>48.07</v>
       </c>
       <c r="C167">
-        <v>13.65</v>
+        <v>8.57</v>
       </c>
       <c r="D167">
         <v>180</v>
       </c>
       <c r="E167" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4710,16 +4688,16 @@
         <v>48.07</v>
       </c>
       <c r="C168">
-        <v>16.19</v>
+        <v>11.1001</v>
       </c>
       <c r="D168">
         <v>180</v>
       </c>
       <c r="E168" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4727,19 +4705,19 @@
         <v>199</v>
       </c>
       <c r="B169">
-        <v>34.8899</v>
+        <v>48.07</v>
       </c>
       <c r="C169">
-        <v>8.05</v>
+        <v>13.65</v>
       </c>
       <c r="D169">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E169" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4747,19 +4725,19 @@
         <v>200</v>
       </c>
       <c r="B170">
-        <v>34.8899</v>
+        <v>48.07</v>
       </c>
       <c r="C170">
-        <v>10.9301</v>
+        <v>16.19</v>
       </c>
       <c r="D170">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="E170" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F170" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4770,16 +4748,16 @@
         <v>34.8899</v>
       </c>
       <c r="C171">
-        <v>13.8001</v>
+        <v>8.05</v>
       </c>
       <c r="D171">
         <v>90</v>
       </c>
       <c r="E171" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F171" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4790,16 +4768,16 @@
         <v>34.8899</v>
       </c>
       <c r="C172">
-        <v>16.6901</v>
+        <v>10.9301</v>
       </c>
       <c r="D172">
         <v>90</v>
       </c>
       <c r="E172" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F172" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4807,19 +4785,19 @@
         <v>203</v>
       </c>
       <c r="B173">
-        <v>48.15</v>
+        <v>34.8899</v>
       </c>
       <c r="C173">
-        <v>28.6101</v>
+        <v>13.8001</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E173" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F173" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4827,19 +4805,19 @@
         <v>204</v>
       </c>
       <c r="B174">
-        <v>48.15</v>
+        <v>34.8899</v>
       </c>
       <c r="C174">
-        <v>24.3299</v>
+        <v>16.6901</v>
       </c>
       <c r="D174">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E174" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F174" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4850,16 +4828,16 @@
         <v>48.15</v>
       </c>
       <c r="C175">
-        <v>22.9001</v>
+        <v>28.6101</v>
       </c>
       <c r="D175">
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4870,16 +4848,16 @@
         <v>48.15</v>
       </c>
       <c r="C176">
-        <v>20.05</v>
+        <v>24.3299</v>
       </c>
       <c r="D176">
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4887,19 +4865,19 @@
         <v>207</v>
       </c>
       <c r="B177">
-        <v>48.1401</v>
+        <v>48.15</v>
       </c>
       <c r="C177">
-        <v>40.05</v>
+        <v>22.9001</v>
       </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4910,16 +4888,16 @@
         <v>48.15</v>
       </c>
       <c r="C178">
-        <v>37.2001</v>
+        <v>20.05</v>
       </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F178" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4927,19 +4905,19 @@
         <v>209</v>
       </c>
       <c r="B179">
-        <v>48.1599</v>
+        <v>48.1401</v>
       </c>
       <c r="C179">
-        <v>34.3499</v>
+        <v>40.05</v>
       </c>
       <c r="D179">
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F179" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4950,16 +4928,16 @@
         <v>48.15</v>
       </c>
       <c r="C180">
-        <v>31.4701</v>
+        <v>37.2001</v>
       </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F180" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4967,19 +4945,19 @@
         <v>211</v>
       </c>
       <c r="B181">
-        <v>99.7831</v>
+        <v>48.1599</v>
       </c>
       <c r="C181">
-        <v>53.7599</v>
+        <v>34.3499</v>
       </c>
       <c r="D181">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4987,19 +4965,19 @@
         <v>212</v>
       </c>
       <c r="B182">
-        <v>59.2869</v>
+        <v>48.15</v>
       </c>
       <c r="C182">
-        <v>18.6398</v>
+        <v>31.4701</v>
       </c>
       <c r="D182">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F182" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5007,19 +4985,19 @@
         <v>213</v>
       </c>
       <c r="B183">
-        <v>57.6986</v>
+        <v>99.7831</v>
       </c>
       <c r="C183">
-        <v>18.64</v>
+        <v>53.7599</v>
       </c>
       <c r="D183">
         <v>90</v>
       </c>
       <c r="E183" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5027,19 +5005,19 @@
         <v>214</v>
       </c>
       <c r="B184">
-        <v>66.9971</v>
+        <v>59.2869</v>
       </c>
       <c r="C184">
-        <v>18.62</v>
+        <v>18.6398</v>
       </c>
       <c r="D184">
         <v>90</v>
       </c>
       <c r="E184" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5047,19 +5025,19 @@
         <v>215</v>
       </c>
       <c r="B185">
-        <v>65.122</v>
+        <v>57.6986</v>
       </c>
       <c r="C185">
-        <v>18.6035</v>
+        <v>18.64</v>
       </c>
       <c r="D185">
         <v>90</v>
       </c>
       <c r="E185" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F185" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5067,19 +5045,19 @@
         <v>216</v>
       </c>
       <c r="B186">
-        <v>63.1508</v>
+        <v>66.9971</v>
       </c>
       <c r="C186">
-        <v>18.6035</v>
+        <v>18.62</v>
       </c>
       <c r="D186">
         <v>90</v>
       </c>
       <c r="E186" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F186" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5087,19 +5065,19 @@
         <v>217</v>
       </c>
       <c r="B187">
-        <v>56.1401</v>
+        <v>65.122</v>
       </c>
       <c r="C187">
-        <v>18.64</v>
+        <v>18.6035</v>
       </c>
       <c r="D187">
         <v>90</v>
       </c>
       <c r="E187" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5107,19 +5085,19 @@
         <v>218</v>
       </c>
       <c r="B188">
-        <v>6.6297</v>
+        <v>63.1508</v>
       </c>
       <c r="C188">
-        <v>46.0827</v>
+        <v>18.6035</v>
       </c>
       <c r="D188">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E188" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F188" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5127,19 +5105,19 @@
         <v>219</v>
       </c>
       <c r="B189">
-        <v>19.32</v>
+        <v>56.1401</v>
       </c>
       <c r="C189">
-        <v>31.62</v>
+        <v>18.64</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E189" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F189" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5147,19 +5125,19 @@
         <v>220</v>
       </c>
       <c r="B190">
-        <v>19.32</v>
+        <v>6.6297</v>
       </c>
       <c r="C190">
-        <v>26.54</v>
+        <v>46.0827</v>
       </c>
       <c r="D190">
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F190" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5167,19 +5145,19 @@
         <v>221</v>
       </c>
       <c r="B191">
-        <v>6.6299</v>
+        <v>19.32</v>
       </c>
       <c r="C191">
-        <v>47.61</v>
+        <v>31.62</v>
       </c>
       <c r="D191">
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F191" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5187,19 +5165,19 @@
         <v>222</v>
       </c>
       <c r="B192">
-        <v>23.0513</v>
+        <v>19.32</v>
       </c>
       <c r="C192">
-        <v>23.3683</v>
+        <v>26.54</v>
       </c>
       <c r="D192">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F192" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5207,19 +5185,19 @@
         <v>223</v>
       </c>
       <c r="B193">
-        <v>4.4501</v>
+        <v>6.6299</v>
       </c>
       <c r="C193">
-        <v>41.1599</v>
+        <v>47.61</v>
       </c>
       <c r="D193">
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5227,19 +5205,19 @@
         <v>224</v>
       </c>
       <c r="B194">
-        <v>3.54</v>
+        <v>23.0513</v>
       </c>
       <c r="C194">
-        <v>21.7599</v>
+        <v>23.3683</v>
       </c>
       <c r="D194">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E194" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F194" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5247,19 +5225,19 @@
         <v>225</v>
       </c>
       <c r="B195">
-        <v>106.79</v>
+        <v>4.4501</v>
       </c>
       <c r="C195">
-        <v>33.21</v>
+        <v>41.1599</v>
       </c>
       <c r="D195">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F195" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5267,19 +5245,19 @@
         <v>226</v>
       </c>
       <c r="B196">
-        <v>34.8899</v>
+        <v>3.54</v>
       </c>
       <c r="C196">
-        <v>28.21</v>
+        <v>21.7599</v>
       </c>
       <c r="D196">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F196" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5287,19 +5265,19 @@
         <v>227</v>
       </c>
       <c r="B197">
-        <v>34.8899</v>
+        <v>106.79</v>
       </c>
       <c r="C197">
-        <v>25.3299</v>
+        <v>33.21</v>
       </c>
       <c r="D197">
         <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F197" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5310,16 +5288,16 @@
         <v>34.8899</v>
       </c>
       <c r="C198">
-        <v>22.4399</v>
+        <v>28.21</v>
       </c>
       <c r="D198">
         <v>90</v>
       </c>
       <c r="E198" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F198" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5330,16 +5308,16 @@
         <v>34.8899</v>
       </c>
       <c r="C199">
-        <v>19.5699</v>
+        <v>25.3299</v>
       </c>
       <c r="D199">
         <v>90</v>
       </c>
       <c r="E199" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5350,16 +5328,16 @@
         <v>34.8899</v>
       </c>
       <c r="C200">
-        <v>39.9501</v>
+        <v>22.4399</v>
       </c>
       <c r="D200">
         <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F200" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5370,16 +5348,16 @@
         <v>34.8899</v>
       </c>
       <c r="C201">
-        <v>37.02</v>
+        <v>19.5699</v>
       </c>
       <c r="D201">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E201" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F201" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5390,16 +5368,16 @@
         <v>34.8899</v>
       </c>
       <c r="C202">
-        <v>34.1399</v>
+        <v>39.9501</v>
       </c>
       <c r="D202">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="E202" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F202" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5410,16 +5388,16 @@
         <v>34.8899</v>
       </c>
       <c r="C203">
-        <v>31.0799</v>
+        <v>37.02</v>
       </c>
       <c r="D203">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E203" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F203" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5427,19 +5405,19 @@
         <v>234</v>
       </c>
       <c r="B204">
-        <v>106.79</v>
+        <v>34.8899</v>
       </c>
       <c r="C204">
-        <v>36.0901</v>
+        <v>34.1399</v>
       </c>
       <c r="D204">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E204" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F204" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5447,19 +5425,19 @@
         <v>235</v>
       </c>
       <c r="B205">
-        <v>89.3999</v>
+        <v>34.8899</v>
       </c>
       <c r="C205">
-        <v>53.6301</v>
+        <v>31.0799</v>
       </c>
       <c r="D205">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E205" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F205" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5467,19 +5445,19 @@
         <v>236</v>
       </c>
       <c r="B206">
-        <v>91.4999</v>
+        <v>106.79</v>
       </c>
       <c r="C206">
-        <v>37.7401</v>
+        <v>36.0901</v>
       </c>
       <c r="D206">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="E206" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F206" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5487,19 +5465,19 @@
         <v>237</v>
       </c>
       <c r="B207">
-        <v>92.2701</v>
+        <v>89.3999</v>
       </c>
       <c r="C207">
-        <v>39.8699</v>
+        <v>53.6301</v>
       </c>
       <c r="D207">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E207" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F207" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5507,19 +5485,19 @@
         <v>238</v>
       </c>
       <c r="B208">
-        <v>95.5799</v>
+        <v>91.4999</v>
       </c>
       <c r="C208">
-        <v>53.23</v>
+        <v>37.7401</v>
       </c>
       <c r="D208">
         <v>180</v>
       </c>
       <c r="E208" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F208" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5527,59 +5505,59 @@
         <v>239</v>
       </c>
       <c r="B209">
-        <v>88.95</v>
+        <v>92.2701</v>
       </c>
       <c r="C209">
-        <v>20.9601</v>
+        <v>39.8699</v>
       </c>
       <c r="D209">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E209" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F209" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:6">
       <c r="A210" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B210">
-        <v>89.01</v>
+        <v>95.5799</v>
       </c>
       <c r="C210">
-        <v>24.05</v>
+        <v>53.23</v>
       </c>
       <c r="D210">
         <v>180</v>
       </c>
       <c r="E210" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F210" t="s">
-        <v>240</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
+        <v>241</v>
+      </c>
+      <c r="B211">
+        <v>88.95</v>
+      </c>
+      <c r="C211">
+        <v>20.9601</v>
+      </c>
+      <c r="D211">
+        <v>180</v>
+      </c>
+      <c r="E211" t="s">
+        <v>9</v>
+      </c>
+      <c r="F211" t="s">
         <v>242</v>
-      </c>
-      <c r="B211">
-        <v>45.07</v>
-      </c>
-      <c r="C211">
-        <v>45.07</v>
-      </c>
-      <c r="D211">
-        <v>270</v>
-      </c>
-      <c r="E211" t="s">
-        <v>7</v>
-      </c>
-      <c r="F211" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5587,56 +5565,56 @@
         <v>243</v>
       </c>
       <c r="B212">
-        <v>9.8549</v>
+        <v>89.01</v>
       </c>
       <c r="C212">
-        <v>30.985</v>
+        <v>24.05</v>
       </c>
       <c r="D212">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="E212" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F212" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="213" spans="1:6">
       <c r="A213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B213">
-        <v>41.1099</v>
+        <v>45.07</v>
       </c>
       <c r="C213">
-        <v>13.02</v>
+        <v>45.07</v>
       </c>
       <c r="D213">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="E213" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F213" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B214">
-        <v>41.0901</v>
+        <v>9.8549</v>
       </c>
       <c r="C214">
-        <v>23.6499</v>
+        <v>30.985</v>
       </c>
       <c r="D214">
         <v>270</v>
       </c>
       <c r="E214" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F214" t="s">
         <v>246</v>
@@ -5644,22 +5622,22 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
+        <v>247</v>
+      </c>
+      <c r="B215">
+        <v>41.1099</v>
+      </c>
+      <c r="C215">
+        <v>13.02</v>
+      </c>
+      <c r="D215">
+        <v>90</v>
+      </c>
+      <c r="E215" t="s">
+        <v>9</v>
+      </c>
+      <c r="F215" t="s">
         <v>248</v>
-      </c>
-      <c r="B215">
-        <v>41.0799</v>
-      </c>
-      <c r="C215">
-        <v>34.2499</v>
-      </c>
-      <c r="D215">
-        <v>270</v>
-      </c>
-      <c r="E215" t="s">
-        <v>7</v>
-      </c>
-      <c r="F215" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5667,99 +5645,99 @@
         <v>249</v>
       </c>
       <c r="B216">
-        <v>38.13</v>
+        <v>41.0901</v>
       </c>
       <c r="C216">
-        <v>45.0901</v>
+        <v>23.6499</v>
       </c>
       <c r="D216">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E216" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F216" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B217">
-        <v>114.2657</v>
+        <v>41.0799</v>
       </c>
       <c r="C217">
-        <v>16.226</v>
+        <v>34.2499</v>
       </c>
       <c r="D217">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="E217" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F217" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B218">
-        <v>11.65</v>
+        <v>38.13</v>
       </c>
       <c r="C218">
-        <v>14.32</v>
+        <v>45.0901</v>
       </c>
       <c r="D218">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F218" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B219">
-        <v>104.4001</v>
+        <v>114.2657</v>
       </c>
       <c r="C219">
-        <v>38.1099</v>
+        <v>16.226</v>
       </c>
       <c r="D219">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="E219" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F219" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
+        <v>255</v>
+      </c>
+      <c r="B220">
+        <v>11.65</v>
+      </c>
+      <c r="C220">
+        <v>14.32</v>
+      </c>
+      <c r="D220">
+        <v>180</v>
+      </c>
+      <c r="E220" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" t="s">
         <v>256</v>
-      </c>
-      <c r="B220">
-        <v>85.1601</v>
-      </c>
-      <c r="C220">
-        <v>38.4899</v>
-      </c>
-      <c r="D220">
-        <v>0</v>
-      </c>
-      <c r="E220" t="s">
-        <v>7</v>
-      </c>
-      <c r="F220" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5767,19 +5745,59 @@
         <v>257</v>
       </c>
       <c r="B221">
+        <v>104.4001</v>
+      </c>
+      <c r="C221">
+        <v>38.1099</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222" t="s">
+        <v>258</v>
+      </c>
+      <c r="B222">
+        <v>85.1601</v>
+      </c>
+      <c r="C222">
+        <v>38.4899</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>9</v>
+      </c>
+      <c r="F222" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223" t="s">
+        <v>259</v>
+      </c>
+      <c r="B223">
         <v>87.5925</v>
       </c>
-      <c r="C221">
+      <c r="C223">
         <v>9.7918</v>
       </c>
-      <c r="D221">
+      <c r="D223">
         <v>90</v>
       </c>
-      <c r="E221" t="s">
-        <v>7</v>
-      </c>
-      <c r="F221" t="s">
-        <v>258</v>
+      <c r="E223" t="s">
+        <v>9</v>
+      </c>
+      <c r="F223" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
